--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.031721-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.031721-1.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4355,12 +4355,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5077,12 +5077,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5727,12 +5727,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5807,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5883,12 +5883,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6605,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7901,12 +7901,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8471,12 +8471,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8965,12 +8965,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10181,12 +10181,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10337,12 +10337,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10489,12 +10489,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10679,12 +10679,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10755,12 +10755,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10831,12 +10831,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10945,12 +10945,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11021,12 +11021,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11591,12 +11591,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
